--- a/chemistry.xlsx
+++ b/chemistry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,11 +30,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案</t>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学方程式的反应条件容易遗漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学方程式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,15 +390,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,9 +413,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
